--- a/wikipedia_validation_sheets/Acute decompensated heart failure DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Acute decompensated heart failure DISNET VALIDATION.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A88FBED2-F188-6242-BFB1-A3F48039C9C7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D4C918-B80E-7541-9634-FB4B9BFA5479}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{685C5B28-50FC-4ED3-8823-F5AB89F96A98}"/>
+    <workbookView xWindow="6560" yWindow="460" windowWidth="25600" windowHeight="20680" xr2:uid="{685C5B28-50FC-4ED3-8823-F5AB89F96A98}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$38</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="107">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -316,6 +319,36 @@
   </si>
   <si>
     <t>anxiety</t>
+  </si>
+  <si>
+    <t>fluid, retention</t>
+  </si>
+  <si>
+    <t>Body fluid retention</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>memory, impairment</t>
+  </si>
+  <si>
+    <t>Memory impairment</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Confusion</t>
+  </si>
+  <si>
+    <t>sensitive</t>
+  </si>
+  <si>
+    <t>Hypersensitivity</t>
   </si>
 </sst>
 </file>
@@ -354,7 +387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,18 +420,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -465,214 +492,199 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -685,74 +697,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -775,6 +742,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,1222 +1130,1477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD66C129-9B8D-43E5-906F-A17751A743F1}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="106" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="E4" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="E5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="E6" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="E7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E11" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="11" t="s">
+      <c r="E13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="E14" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E15" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="E16" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="42" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="E17" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E19" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="11" t="s">
+      <c r="E21" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="11" t="s">
+      <c r="E22" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E23" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E24" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E25" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E26" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E27" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="32" t="b">
+      <c r="E28" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="32" t="b">
+      <c r="E29" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="32" t="b">
+      <c r="E30" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="32" t="b">
+      <c r="E31" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="32" t="b">
+      <c r="E32" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F32" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="32" t="b">
+      <c r="E33" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F33" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="32" t="b">
+      <c r="E34" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="F34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="32" t="b">
+      <c r="E35" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F35" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F35" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="32" t="b">
+      <c r="E36" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F36" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="32" t="b">
+      <c r="E37" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F37" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="32" t="b">
+      <c r="E38" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F38" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="15" t="s">
+      <c r="F38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+    </row>
+    <row r="43" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="26" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="12" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="27" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="12" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="27" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="12" t="s">
+    <row r="47" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" s="30" t="s">
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2326,8 +2610,8 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C4:C38">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="C4:C43">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
